--- a/RHEL Data Breakdown - formatted.xlsx
+++ b/RHEL Data Breakdown - formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkelly\github\sku-calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C2CBC-5128-4164-830A-378011F58DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A158E89E-5BC9-4E1D-B5B6-6C1B48F3B989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="2565" windowWidth="57600" windowHeight="15435" xr2:uid="{EEEE2005-B44C-4558-9957-76DB6E9A69D3}"/>
+    <workbookView xWindow="11580" yWindow="2100" windowWidth="57600" windowHeight="15435" xr2:uid="{EEEE2005-B44C-4558-9957-76DB6E9A69D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1580,13 +1580,13 @@
     <t xml:space="preserve">Satellite / Smart Management </t>
   </si>
   <si>
-    <t>Vitrual Datacenters</t>
-  </si>
-  <si>
     <t>Virtual</t>
   </si>
   <si>
     <t>Is it for Edge, Endpoint or gateway?</t>
+  </si>
+  <si>
+    <t>Virtual Datacenters</t>
   </si>
 </sst>
 </file>
@@ -1672,10 +1672,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1978,7 +1974,7 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,10 +2030,10 @@
         <v>511</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -2076,7 +2072,7 @@
         <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
